--- a/game/Decide/Decide/Asset/Data/ShopData/ShopData.xlsx
+++ b/game/Decide/Decide/Asset/Data/ShopData/ShopData.xlsx
@@ -466,37 +466,37 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
